--- a/biology/Zoologie/Euptoieta_hegesia/Euptoieta_hegesia.xlsx
+++ b/biology/Zoologie/Euptoieta_hegesia/Euptoieta_hegesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euptoieta hegesia est une espèce de lépidoptères appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Euptoieta.
 </t>
@@ -511,16 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euptoieta hegesia a été nommé par Pieter Cramer en 1779.
-Synonymie : Papilio hegesia Cramer, [1779] ; Papilio columbina Fabricius, 1793[1].
-Noms vernaculaires
-Euptoieta hegesia se nomme en anglais Mexican Fritillary[1].
-Sous-espèces
-Euptoieta hegesia hegesia présent à la Jamaïque, à Cuba, et en République dominicaine.
-Euptoieta hegesia meridiania Stichel, 1938 ; au Mexique, à Panama, en Équateur et au Brésil
-Euptoieta hegesia watsoni Comstock, 1944 ; présent à Porto Rico[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptoieta hegesia a été nommé par Pieter Cramer en 1779.
+Synonymie : Papilio hegesia Cramer,  ; Papilio columbina Fabricius, 1793.
+</t>
         </is>
       </c>
     </row>
@@ -545,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon au dessus orange uni, sans marque aux postérieures, juste en bordure une fine double ligne marron et ligne de points marron.
-Le revers est orange cuivré avec les mêmes discrètes ornementations.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptoieta hegesia se nomme en anglais Mexican Fritillary.
 </t>
         </is>
       </c>
@@ -577,13 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chenille</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La chenille est rouge orangé avec de fines lignes blanches et des épines noires[2]
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euptoieta hegesia hegesia présent à la Jamaïque, à Cuba, et en République dominicaine.
+Euptoieta hegesia meridiania Stichel, 1938 ; au Mexique, à Panama, en Équateur et au Brésil
+Euptoieta hegesia watsoni Comstock, 1944 ; présent à Porto Rico.</t>
         </is>
       </c>
     </row>
@@ -608,15 +629,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole de mi-juin à novembre en Arizona, de juillet à décembre au Texas et toute l'année au Mexique[3],[4].
-Plantes hôtes
-Ses plantes hôtes sont des passiflores, Passiflora foetida, Passiflora perfoliata, Passiflora rubra, Passiflora suberosa, et Turnera ulmifolia[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon au dessus orange uni, sans marque aux postérieures, juste en bordure une fine double ligne marron et ligne de points marron.
+Le revers est orange cuivré avec les mêmes discrètes ornementations.
 </t>
         </is>
       </c>
@@ -642,16 +663,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptoieta hegesia est présent en Amérique, du sud de l'Amérique du Nord, Texas, Nouveau-Mexique, Arizona, Californie, aux Antilles, au Mexique, à Panama, en Équateur et jusqu'au Brésil[1],[5].
-Biotope
-Il réside en divers habitats de zones tropicale et subtropicale.
-Protection
-Pas de statut de protection particulier.
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est rouge orangé avec de fines lignes blanches et des épines noires
 </t>
         </is>
       </c>
@@ -677,10 +696,193 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole de mi-juin à novembre en Arizona, de juillet à décembre au Texas et toute l'année au Mexique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des passiflores, Passiflora foetida, Passiflora perfoliata, Passiflora rubra, Passiflora suberosa, et Turnera ulmifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptoieta hegesia est présent en Amérique, du sud de l'Amérique du Nord, Texas, Nouveau-Mexique, Arizona, Californie, aux Antilles, au Mexique, à Panama, en Équateur et jusqu'au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en divers habitats de zones tropicale et subtropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptoieta_hegesia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission de Cuba de 1982 (valeur faciale : 1 c.).
 </t>
